--- a/fundamental data.xlsx
+++ b/fundamental data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l_ace\Desktop\projects\rss_feed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F696DF3-FA3F-4760-BA0B-81F6035DC4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75052869-1935-47DE-B537-5D309D51A473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{99CFD389-CAC9-4918-9C99-3F2C43B22E2F}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$E$8:$F$39</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="123">
   <si>
     <t>Breakdown</t>
   </si>
@@ -486,6 +487,36 @@
   </si>
   <si>
     <t>DilutedEPS</t>
+  </si>
+  <si>
+    <t>OperatingCashFlow</t>
+  </si>
+  <si>
+    <t>InvestingCashFlow</t>
+  </si>
+  <si>
+    <t>FinancingCashFlow</t>
+  </si>
+  <si>
+    <t>EndCashPosition</t>
+  </si>
+  <si>
+    <t>CapitalExpenditure</t>
+  </si>
+  <si>
+    <t>IssuanceOfDebt</t>
+  </si>
+  <si>
+    <t>RepaymentOfDebt</t>
+  </si>
+  <si>
+    <t>RepurchaseOfCapitalStock</t>
+  </si>
+  <si>
+    <t>FreeCashFlow</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
 </sst>
 </file>
@@ -552,7 +583,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -568,7 +599,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -885,10 +916,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC49C73-450B-4BCB-BFBD-14DBE4399810}">
   <sheetPr filterMode="1"/>
-  <dimension ref="E4:L88"/>
+  <dimension ref="B4:L88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H30"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71:B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -897,7 +928,7 @@
     <col min="8" max="8" width="34.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
       <c r="F4" t="s">
         <v>103</v>
       </c>
@@ -911,13 +942,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
       <c r="E8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B9" t="str">
+        <f>+_xlfn.CONCAT($F$41,E9,$F$41,$B$43)</f>
+        <v>"Total Revenue",</v>
+      </c>
       <c r="E9" s="2" t="s">
         <v>1</v>
       </c>
@@ -935,7 +970,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B10" t="str">
+        <f>+_xlfn.CONCAT($F$41,E10,$F$41,$B$43)</f>
+        <v>"Cost of Revenue",</v>
+      </c>
       <c r="E10" s="2" t="s">
         <v>2</v>
       </c>
@@ -946,12 +985,16 @@
         <v>106</v>
       </c>
       <c r="H10" t="str">
-        <f t="shared" ref="H10:H12" si="0">+_xlfn.CONCAT($F$41,G10,$F$41,$G$41,$H$4,E10,$I$41)</f>
+        <f>+_xlfn.CONCAT($F$41,G10,$F$41,$G$41,$H$4,E10,$I$41)</f>
         <v>"CostRevenue": safe_get(financials, "Cost of Revenue"),</v>
       </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B11" t="str">
+        <f>+_xlfn.CONCAT($F$41,E11,$F$41,$B$43)</f>
+        <v>"Gross Profit",</v>
+      </c>
       <c r="E11" s="2" t="s">
         <v>3</v>
       </c>
@@ -962,14 +1005,18 @@
         <v>107</v>
       </c>
       <c r="H11" t="str">
-        <f t="shared" si="0"/>
+        <f>+_xlfn.CONCAT($F$41,G11,$F$41,$G$41,$H$4,E11,$I$41)</f>
         <v>"GrossProfit": safe_get(financials, "Gross Profit"),</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B12" t="str">
+        <f>+_xlfn.CONCAT($F$41,E12,$F$41,$B$43)</f>
+        <v>"Operating Expense",</v>
+      </c>
       <c r="E12" s="2" t="s">
         <v>4</v>
       </c>
@@ -980,12 +1027,16 @@
         <v>108</v>
       </c>
       <c r="H12" t="str">
-        <f t="shared" si="0"/>
+        <f>+_xlfn.CONCAT($F$41,G12,$F$41,$G$41,$H$4,E12,$I$41)</f>
         <v>"OperatingExpenses": safe_get(financials, "Operating Expense"),</v>
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="5:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B13" t="str">
+        <f>+_xlfn.CONCAT($F$41,E13,$F$41,$B$43)</f>
+        <v>"Operating Income",</v>
+      </c>
       <c r="E13" s="2" t="s">
         <v>5</v>
       </c>
@@ -993,13 +1044,17 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="5:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="E14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="L14" s="2"/>
     </row>
-    <row r="15" spans="5:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B15" t="str">
+        <f>+_xlfn.CONCAT($F$41,E15,$F$41,$B$43)</f>
+        <v>"Other Income Expense",</v>
+      </c>
       <c r="E15" s="2" t="s">
         <v>7</v>
       </c>
@@ -1007,7 +1062,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B16" t="str">
+        <f>+_xlfn.CONCAT($F$41,E16,$F$41,$B$43)</f>
+        <v>"Pretax Income",</v>
+      </c>
       <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
@@ -1018,12 +1077,16 @@
         <v>109</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" ref="H16:H18" si="1">+_xlfn.CONCAT($F$41,G16,$F$41,$G$41,$H$4,E16,$I$41)</f>
+        <f>+_xlfn.CONCAT($F$41,G16,$F$41,$G$41,$H$4,E16,$I$41)</f>
         <v>"PretaxIncome": safe_get(financials, "Pretax Income"),</v>
       </c>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B17" t="str">
+        <f>+_xlfn.CONCAT($F$41,E17,$F$41,$B$43)</f>
+        <v>"Tax Provision",</v>
+      </c>
       <c r="E17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1034,14 +1097,18 @@
         <v>110</v>
       </c>
       <c r="H17" t="str">
-        <f t="shared" si="1"/>
+        <f>+_xlfn.CONCAT($F$41,G17,$F$41,$G$41,$H$4,E17,$I$41)</f>
         <v>"TaxProvision": safe_get(financials, "Tax Provision"),</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B18" t="str">
+        <f>+_xlfn.CONCAT($F$41,E18,$F$41,$B$43)</f>
+        <v>"Net Income Common Stockholders",</v>
+      </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
@@ -1052,12 +1119,16 @@
         <v>111</v>
       </c>
       <c r="H18" t="str">
-        <f t="shared" si="1"/>
+        <f>+_xlfn.CONCAT($F$41,G18,$F$41,$G$41,$H$4,E18,$I$41)</f>
         <v>"NetIncomeCommonStockholders": safe_get(financials, "Net Income Common Stockholders"),</v>
       </c>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="5:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B19" t="str">
+        <f>+_xlfn.CONCAT($F$41,E19,$F$41,$B$43)</f>
+        <v>"Diluted NI Available to Com Stockholders",</v>
+      </c>
       <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1065,13 +1136,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="5:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="E20" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B21" t="str">
+        <f>+_xlfn.CONCAT($F$41,E21,$F$41,$B$43)</f>
+        <v>"Diluted EPS",</v>
+      </c>
       <c r="E21" s="2" t="s">
         <v>13</v>
       </c>
@@ -1089,13 +1164,17 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="5:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B22" t="str">
+        <f>+_xlfn.CONCAT($F$41,E22,$F$41,$B$43)</f>
+        <v>"Total Operating Income as Reported",</v>
+      </c>
       <c r="E22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="5:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="E23" s="2" t="s">
         <v>15</v>
       </c>
@@ -1103,13 +1182,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="5:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="E24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L24" s="2"/>
     </row>
-    <row r="25" spans="5:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="E25" s="2" t="s">
         <v>17</v>
       </c>
@@ -1117,13 +1196,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="5:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="E26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="5:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="E27" s="2" t="s">
         <v>19</v>
       </c>
@@ -1131,13 +1210,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="5:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="E28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L28" s="2"/>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B29" t="str">
+        <f>+_xlfn.CONCAT($F$41,E29,$F$41,$B$43)</f>
+        <v>"EBIT",</v>
+      </c>
       <c r="E29" s="2" t="s">
         <v>21</v>
       </c>
@@ -1148,14 +1231,18 @@
         <v>21</v>
       </c>
       <c r="H29" t="str">
-        <f t="shared" ref="H29:H30" si="2">+_xlfn.CONCAT($F$41,G29,$F$41,$G$41,$H$4,E29,$I$41)</f>
+        <f>+_xlfn.CONCAT($F$41,G29,$F$41,$G$41,$H$4,E29,$I$41)</f>
         <v>"EBIT": safe_get(financials, "EBIT"),</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B30" t="str">
+        <f>+_xlfn.CONCAT($F$41,E30,$F$41,$B$43)</f>
+        <v>"EBITDA",</v>
+      </c>
       <c r="E30" s="2" t="s">
         <v>22</v>
       </c>
@@ -1166,65 +1253,65 @@
         <v>22</v>
       </c>
       <c r="H30" t="str">
-        <f t="shared" si="2"/>
+        <f>+_xlfn.CONCAT($F$41,G30,$F$41,$G$41,$H$4,E30,$I$41)</f>
         <v>"EBITDA": safe_get(financials, "EBITDA"),</v>
       </c>
     </row>
-    <row r="31" spans="5:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="E31" s="2" t="s">
         <v>23</v>
       </c>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="5:12" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:12" hidden="1" x14ac:dyDescent="0.35">
       <c r="E32" s="2" t="s">
         <v>24</v>
       </c>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="5:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="E33" s="2" t="s">
         <v>25</v>
       </c>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="5:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="E34" s="2" t="s">
         <v>26</v>
       </c>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="5:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="E35" s="2" t="s">
         <v>27</v>
       </c>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="5:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="E36" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="5:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="E37" s="2" t="s">
         <v>29</v>
       </c>
       <c r="H37" s="2"/>
     </row>
-    <row r="38" spans="5:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="E38" s="2" t="s">
         <v>30</v>
       </c>
       <c r="H38" s="2"/>
     </row>
-    <row r="39" spans="5:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F39">
         <f>+COUNTA(F9:F38)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.35">
       <c r="F41" t="s">
         <v>103</v>
       </c>
@@ -1238,12 +1325,15 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>122</v>
+      </c>
       <c r="E43" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E45" s="1" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1341,11 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B46" t="str">
+        <f>+_xlfn.CONCAT($F$41,E46,$F$41,$B$43)</f>
+        <v>"Total Assets",</v>
+      </c>
       <c r="E46" s="2" t="s">
         <v>44</v>
       </c>
@@ -1267,7 +1361,11 @@
       </c>
       <c r="K46" s="2"/>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B47" t="str">
+        <f>+_xlfn.CONCAT($F$41,E47,$F$41,$B$43)</f>
+        <v>"Total Liabilities Net Minority Interest",</v>
+      </c>
       <c r="E47" s="2" t="s">
         <v>45</v>
       </c>
@@ -1278,20 +1376,24 @@
         <v>98</v>
       </c>
       <c r="H47" t="str">
-        <f t="shared" ref="H47" si="3">+_xlfn.CONCAT($F$41,G47,$F$41,$G$41,$H$41,E47,$I$41)</f>
+        <f>+_xlfn.CONCAT($F$41,G47,$F$41,$G$41,$H$41,E47,$I$41)</f>
         <v>"TotalLiabilityNetMinorityInterest": safe_get(balance_sheet, "Total Liabilities Net Minority Interest"),</v>
       </c>
       <c r="K47" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E48" s="2" t="s">
         <v>46</v>
       </c>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B49" t="str">
+        <f>+_xlfn.CONCAT($F$41,E49,$F$41,$B$43)</f>
+        <v>"Total Capitalization",</v>
+      </c>
       <c r="E49" s="2" t="s">
         <v>47</v>
       </c>
@@ -1302,14 +1404,18 @@
         <v>94</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" ref="H49:H50" si="4">+_xlfn.CONCAT($F$41,G49,$F$41,$G$41,$H$41,E49,$I$41)</f>
+        <f>+_xlfn.CONCAT($F$41,G49,$F$41,$G$41,$H$41,E49,$I$41)</f>
         <v>"TotalCapit": safe_get(balance_sheet, "Total Capitalization"),</v>
       </c>
       <c r="K49" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B50" t="str">
+        <f>+_xlfn.CONCAT($F$41,E50,$F$41,$B$43)</f>
+        <v>"Common Stock Equity",</v>
+      </c>
       <c r="E50" s="2" t="s">
         <v>48</v>
       </c>
@@ -1320,12 +1426,12 @@
         <v>99</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="4"/>
+        <f>+_xlfn.CONCAT($F$41,G50,$F$41,$G$41,$H$41,E50,$I$41)</f>
         <v>"CommonStock EyEquity": safe_get(balance_sheet, "Common Stock Equity"),</v>
       </c>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E51" s="2" t="s">
         <v>49</v>
       </c>
@@ -1333,7 +1439,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B52" t="str">
+        <f>+_xlfn.CONCAT($F$41,E52,$F$41,$B$43)</f>
+        <v>"Net Tangible Assets",</v>
+      </c>
       <c r="E52" s="2" t="s">
         <v>50</v>
       </c>
@@ -1344,12 +1454,16 @@
         <v>100</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" ref="H52:H54" si="5">+_xlfn.CONCAT($F$41,G52,$F$41,$G$41,$H$41,E52,$I$41)</f>
+        <f>+_xlfn.CONCAT($F$41,G52,$F$41,$G$41,$H$41,E52,$I$41)</f>
         <v>"NetTangible AyAssets": safe_get(balance_sheet, "Net Tangible Assets"),</v>
       </c>
       <c r="K52" s="2"/>
     </row>
-    <row r="53" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B53" t="str">
+        <f>+_xlfn.CONCAT($F$41,E53,$F$41,$B$43)</f>
+        <v>"Working Capital",</v>
+      </c>
       <c r="E53" s="2" t="s">
         <v>51</v>
       </c>
@@ -1360,14 +1474,18 @@
         <v>95</v>
       </c>
       <c r="H53" t="str">
-        <f t="shared" si="5"/>
+        <f>+_xlfn.CONCAT($F$41,G53,$F$41,$G$41,$H$41,E53,$I$41)</f>
         <v>"WorkingCap": safe_get(balance_sheet, "Working Capital"),</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B54" t="str">
+        <f>+_xlfn.CONCAT($F$41,E54,$F$41,$B$43)</f>
+        <v>"Invested Capital",</v>
+      </c>
       <c r="E54" s="2" t="s">
         <v>52</v>
       </c>
@@ -1378,12 +1496,12 @@
         <v>96</v>
       </c>
       <c r="H54" t="str">
-        <f t="shared" si="5"/>
+        <f>+_xlfn.CONCAT($F$41,G54,$F$41,$G$41,$H$41,E54,$I$41)</f>
         <v>"InvestedCa": safe_get(balance_sheet, "Invested Capital"),</v>
       </c>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E55" s="2" t="s">
         <v>53</v>
       </c>
@@ -1391,7 +1509,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B56" t="str">
+        <f>+_xlfn.CONCAT($F$41,E56,$F$41,$B$43)</f>
+        <v>"Total Debt",</v>
+      </c>
       <c r="E56" s="2" t="s">
         <v>54</v>
       </c>
@@ -1407,7 +1529,7 @@
       </c>
       <c r="K56" s="2"/>
     </row>
-    <row r="57" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E57" s="2" t="s">
         <v>55</v>
       </c>
@@ -1415,7 +1537,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B58" t="str">
+        <f>+_xlfn.CONCAT($F$41,E58,$F$41,$B$43)</f>
+        <v>"Ordinary Shares Number",</v>
+      </c>
       <c r="E58" s="2" t="s">
         <v>56</v>
       </c>
@@ -1426,12 +1552,16 @@
         <v>101</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" ref="H58:H59" si="6">+_xlfn.CONCAT($F$41,G58,$F$41,$G$41,$H$41,E58,$I$41)</f>
+        <f>+_xlfn.CONCAT($F$41,G58,$F$41,$G$41,$H$41,E58,$I$41)</f>
         <v>"OrdinaryShareyNumber": safe_get(balance_sheet, "Ordinary Shares Number"),</v>
       </c>
       <c r="K58" s="2"/>
     </row>
-    <row r="59" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B59" t="str">
+        <f>+_xlfn.CONCAT($F$41,E59,$F$41,$B$43)</f>
+        <v>"Treasury Shares Number",</v>
+      </c>
       <c r="E59" s="2" t="s">
         <v>57</v>
       </c>
@@ -1442,45 +1572,45 @@
         <v>102</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="6"/>
+        <f>+_xlfn.CONCAT($F$41,G59,$F$41,$G$41,$H$41,E59,$I$41)</f>
         <v>"TreasuryShareyNumber": safe_get(balance_sheet, "Treasury Shares Number"),</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E60" s="2"/>
       <c r="K60" s="2"/>
     </row>
-    <row r="61" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E61" s="2"/>
       <c r="K61" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E62" s="2"/>
       <c r="K62" s="2"/>
     </row>
-    <row r="63" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E63" s="2"/>
       <c r="K63" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.35">
       <c r="K65" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
       <c r="F66">
         <f>+COUNTA(F46:F59)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E70" s="1" t="s">
         <v>0</v>
       </c>
@@ -1488,98 +1618,197 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B71" t="str">
+        <f>+_xlfn.CONCAT($F$41,E71,$F$41,$B$43)</f>
+        <v>"Operating Cash Flow",</v>
+      </c>
       <c r="E71" s="2" t="s">
         <v>69</v>
       </c>
       <c r="F71">
         <v>1</v>
       </c>
+      <c r="G71" t="s">
+        <v>113</v>
+      </c>
+      <c r="H71" t="str">
+        <f t="shared" ref="H71:H80" si="0">+_xlfn.CONCAT($F$41,G71,$F$41,$G$41,$H$41,E71,$I$41)</f>
+        <v>"OperatingCashFlow": safe_get(balance_sheet, "Operating Cash Flow"),</v>
+      </c>
       <c r="K71" s="2"/>
     </row>
-    <row r="72" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B72" t="str">
+        <f t="shared" ref="B72:B80" si="1">+_xlfn.CONCAT($F$41,E72,$F$41,$B$43)</f>
+        <v>"Investing Cash Flow",</v>
+      </c>
       <c r="E72" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F72">
         <v>1</v>
       </c>
+      <c r="G72" t="s">
+        <v>114</v>
+      </c>
+      <c r="H72" t="str">
+        <f t="shared" si="0"/>
+        <v>"InvestingCashFlow": safe_get(balance_sheet, "Investing Cash Flow"),</v>
+      </c>
       <c r="K72" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B73" t="str">
+        <f t="shared" si="1"/>
+        <v>"Financing Cash Flow",</v>
+      </c>
       <c r="E73" s="2" t="s">
         <v>71</v>
       </c>
       <c r="F73">
         <v>1</v>
       </c>
+      <c r="G73" t="s">
+        <v>115</v>
+      </c>
+      <c r="H73" t="str">
+        <f t="shared" si="0"/>
+        <v>"FinancingCashFlow": safe_get(balance_sheet, "Financing Cash Flow"),</v>
+      </c>
       <c r="K73" s="2"/>
     </row>
-    <row r="74" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B74" t="str">
+        <f t="shared" si="1"/>
+        <v>"End Cash Position",</v>
+      </c>
       <c r="E74" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F74">
         <v>1</v>
       </c>
+      <c r="G74" t="s">
+        <v>116</v>
+      </c>
+      <c r="H74" t="str">
+        <f t="shared" si="0"/>
+        <v>"EndCashPosition": safe_get(balance_sheet, "End Cash Position"),</v>
+      </c>
       <c r="K74" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
       <c r="E75" s="2" t="s">
         <v>73</v>
       </c>
       <c r="K75" s="2"/>
     </row>
-    <row r="76" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B76" t="str">
+        <f t="shared" si="1"/>
+        <v>"Capital Expenditure",</v>
+      </c>
       <c r="E76" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F76">
         <v>1</v>
       </c>
+      <c r="G76" t="s">
+        <v>117</v>
+      </c>
+      <c r="H76" t="str">
+        <f t="shared" si="0"/>
+        <v>"CapitalExpenditure": safe_get(balance_sheet, "Capital Expenditure"),</v>
+      </c>
       <c r="K76" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B77" t="str">
+        <f t="shared" si="1"/>
+        <v>"Issuance of Debt",</v>
+      </c>
       <c r="E77" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F77">
         <v>1</v>
       </c>
+      <c r="G77" t="s">
+        <v>118</v>
+      </c>
+      <c r="H77" t="str">
+        <f t="shared" si="0"/>
+        <v>"IssuanceOfDebt": safe_get(balance_sheet, "Issuance of Debt"),</v>
+      </c>
       <c r="K77" s="2"/>
     </row>
-    <row r="78" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B78" t="str">
+        <f t="shared" si="1"/>
+        <v>"Repayment of Debt",</v>
+      </c>
       <c r="E78" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F78">
         <v>1</v>
       </c>
+      <c r="G78" t="s">
+        <v>119</v>
+      </c>
+      <c r="H78" t="str">
+        <f t="shared" si="0"/>
+        <v>"RepaymentOfDebt": safe_get(balance_sheet, "Repayment of Debt"),</v>
+      </c>
       <c r="K78" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="79" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B79" t="str">
+        <f t="shared" si="1"/>
+        <v>"Repurchase of Capital Stock",</v>
+      </c>
       <c r="E79" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F79">
         <v>1</v>
       </c>
+      <c r="G79" t="s">
+        <v>120</v>
+      </c>
+      <c r="H79" t="str">
+        <f t="shared" si="0"/>
+        <v>"RepurchaseOfCapitalStock": safe_get(balance_sheet, "Repurchase of Capital Stock"),</v>
+      </c>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B80" t="str">
+        <f t="shared" si="1"/>
+        <v>"Free Cash Flow",</v>
+      </c>
       <c r="E80" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F80">
         <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>121</v>
+      </c>
+      <c r="H80" t="str">
+        <f t="shared" si="0"/>
+        <v>"FreeCashFlow": safe_get(balance_sheet, "Free Cash Flow"),</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>84</v>
